--- a/predictions полгода до/Прогнозы_GP_Combo_1.xlsx
+++ b/predictions полгода до/Прогнозы_GP_Combo_1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20825284.79993689</v>
+        <v>23669769.49373531</v>
       </c>
       <c r="C2" t="n">
-        <v>21158594.98950362</v>
+        <v>24162889.69151926</v>
       </c>
       <c r="D2" t="n">
-        <v>21491905.17907077</v>
+        <v>24656009.88930702</v>
       </c>
       <c r="E2" t="n">
-        <v>21825215.3686372</v>
+        <v>25149130.08709288</v>
       </c>
       <c r="F2" t="n">
-        <v>22158525.55820405</v>
+        <v>25642250.28487825</v>
       </c>
       <c r="G2" t="n">
-        <v>22491835.74777067</v>
+        <v>26135370.48266506</v>
       </c>
       <c r="H2" t="n">
-        <v>22825145.9373374</v>
+        <v>26628490.68045044</v>
       </c>
       <c r="I2" t="n">
-        <v>23158456.12690461</v>
+        <v>27121610.87823582</v>
       </c>
       <c r="J2" t="n">
-        <v>23491766.31647098</v>
+        <v>27614731.0760231</v>
       </c>
       <c r="K2" t="n">
-        <v>23825076.50603801</v>
+        <v>28107851.27381039</v>
       </c>
       <c r="L2" t="n">
-        <v>24158386.6956045</v>
+        <v>28600971.47159576</v>
       </c>
       <c r="M2" t="n">
-        <v>24491696.88517177</v>
+        <v>29094091.66938114</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7699440.924877644</v>
+        <v>4184549.847462416</v>
       </c>
       <c r="C3" t="n">
-        <v>7856087.048202872</v>
+        <v>4376364.947878748</v>
       </c>
       <c r="D3" t="n">
-        <v>8012746.403761983</v>
+        <v>4506886.54737398</v>
       </c>
       <c r="E3" t="n">
-        <v>8169418.852578402</v>
+        <v>4592079.52865386</v>
       </c>
       <c r="F3" t="n">
-        <v>8326104.257134557</v>
+        <v>4652498.760348946</v>
       </c>
       <c r="G3" t="n">
-        <v>8482802.481357217</v>
+        <v>4646308.885012776</v>
       </c>
       <c r="H3" t="n">
-        <v>8639513.390602946</v>
+        <v>4764408.271110654</v>
       </c>
       <c r="I3" t="n">
-        <v>8796236.851641536</v>
+        <v>4979196.71676971</v>
       </c>
       <c r="J3" t="n">
-        <v>8952972.73264277</v>
+        <v>5084844.889640629</v>
       </c>
       <c r="K3" t="n">
-        <v>9109720.903160691</v>
+        <v>5221801.627404258</v>
       </c>
       <c r="L3" t="n">
-        <v>9266481.234119654</v>
+        <v>5233396.068114102</v>
       </c>
       <c r="M3" t="n">
-        <v>9423253.597799301</v>
+        <v>5393864.229707807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2366943.675435066</v>
+        <v>7715340.77557826</v>
       </c>
       <c r="C4" t="n">
-        <v>2422276.686509609</v>
+        <v>6365276.825796738</v>
       </c>
       <c r="D4" t="n">
-        <v>2477609.590314865</v>
+        <v>5528307.546991214</v>
       </c>
       <c r="E4" t="n">
-        <v>2532942.386916637</v>
+        <v>5020073.200460941</v>
       </c>
       <c r="F4" t="n">
-        <v>2588275.076383591</v>
+        <v>4722456.234720141</v>
       </c>
       <c r="G4" t="n">
-        <v>2643607.658780098</v>
+        <v>4559779.844912693</v>
       </c>
       <c r="H4" t="n">
-        <v>2698940.134172916</v>
+        <v>4483558.613577738</v>
       </c>
       <c r="I4" t="n">
-        <v>2754272.502628803</v>
+        <v>4462728.389542177</v>
       </c>
       <c r="J4" t="n">
-        <v>2809604.764212132</v>
+        <v>4477386.663172305</v>
       </c>
       <c r="K4" t="n">
-        <v>2864936.918989658</v>
+        <v>4514782.0836422</v>
       </c>
       <c r="L4" t="n">
-        <v>2920268.967027664</v>
+        <v>4566744.980348602</v>
       </c>
       <c r="M4" t="n">
-        <v>2975600.90839386</v>
+        <v>4628041.122139379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199964.3513872325</v>
+        <v>18166418.01965618</v>
       </c>
       <c r="C5" t="n">
-        <v>204130.2753744796</v>
+        <v>18454860.88877201</v>
       </c>
       <c r="D5" t="n">
-        <v>208296.1993617117</v>
+        <v>18743303.75791359</v>
       </c>
       <c r="E5" t="n">
-        <v>212462.1233489513</v>
+        <v>19031746.62707901</v>
       </c>
       <c r="F5" t="n">
-        <v>216628.0473361909</v>
+        <v>19320189.49626851</v>
       </c>
       <c r="G5" t="n">
-        <v>220793.9713234156</v>
+        <v>19608632.36548328</v>
       </c>
       <c r="H5" t="n">
-        <v>224959.8953106552</v>
+        <v>19897075.23472214</v>
       </c>
       <c r="I5" t="n">
-        <v>229125.8192978799</v>
+        <v>20185518.10398579</v>
       </c>
       <c r="J5" t="n">
-        <v>233291.7432851195</v>
+        <v>20473960.97327352</v>
       </c>
       <c r="K5" t="n">
-        <v>237457.6672723442</v>
+        <v>20762403.84258628</v>
       </c>
       <c r="L5" t="n">
-        <v>241623.5912595838</v>
+        <v>21050846.71192312</v>
       </c>
       <c r="M5" t="n">
-        <v>245789.5152468234</v>
+        <v>21339289.58128428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8752782.07636331</v>
+        <v>6117506.177551746</v>
       </c>
       <c r="C6" t="n">
-        <v>8935131.702954262</v>
+        <v>6244954.222916842</v>
       </c>
       <c r="D6" t="n">
-        <v>9117481.329545118</v>
+        <v>6372402.26828289</v>
       </c>
       <c r="E6" t="n">
-        <v>9299830.956136122</v>
+        <v>6499850.313648939</v>
       </c>
       <c r="F6" t="n">
-        <v>9482180.582727015</v>
+        <v>6627298.359014511</v>
       </c>
       <c r="G6" t="n">
-        <v>9664530.209318072</v>
+        <v>6754746.404379606</v>
       </c>
       <c r="H6" t="n">
-        <v>9846879.835908651</v>
+        <v>6882194.449745655</v>
       </c>
       <c r="I6" t="n">
-        <v>10029229.46249968</v>
+        <v>7009642.495111465</v>
       </c>
       <c r="J6" t="n">
-        <v>10211579.08909065</v>
+        <v>7137090.540476799</v>
       </c>
       <c r="K6" t="n">
-        <v>10393928.71568146</v>
+        <v>7264538.585842133</v>
       </c>
       <c r="L6" t="n">
-        <v>10576278.34227222</v>
+        <v>7391986.631207943</v>
       </c>
       <c r="M6" t="n">
-        <v>10758627.9688631</v>
+        <v>7519434.67657423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2975006.758759797</v>
+        <v>4985118.789954662</v>
       </c>
       <c r="C7" t="n">
-        <v>3036986.066234052</v>
+        <v>5088975.431411266</v>
       </c>
       <c r="D7" t="n">
-        <v>3098965.373708367</v>
+        <v>5192832.072869778</v>
       </c>
       <c r="E7" t="n">
-        <v>3160944.681182504</v>
+        <v>5296688.714326382</v>
       </c>
       <c r="F7" t="n">
-        <v>3222923.988656461</v>
+        <v>5400545.355783463</v>
       </c>
       <c r="G7" t="n">
-        <v>3284903.296130657</v>
+        <v>5504401.99724102</v>
       </c>
       <c r="H7" t="n">
-        <v>3346882.603604674</v>
+        <v>5608258.638699055</v>
       </c>
       <c r="I7" t="n">
-        <v>3408861.911079168</v>
+        <v>5712115.280156612</v>
       </c>
       <c r="J7" t="n">
-        <v>3470841.218553424</v>
+        <v>5815971.921613693</v>
       </c>
       <c r="K7" t="n">
-        <v>3532820.526027501</v>
+        <v>5919828.563070774</v>
       </c>
       <c r="L7" t="n">
-        <v>3594799.833501399</v>
+        <v>6023685.204527855</v>
       </c>
       <c r="M7" t="n">
-        <v>3656779.140975654</v>
+        <v>6127541.845985889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391726.5563244</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="C8" t="n">
-        <v>1415499.33528413</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="D8" t="n">
-        <v>1439273.537311795</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="E8" t="n">
-        <v>1463048.464392762</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="F8" t="n">
-        <v>1486823.263537013</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="G8" t="n">
-        <v>1510597.10908846</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="H8" t="n">
-        <v>1534369.379201174</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="I8" t="n">
-        <v>1558139.788762955</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="J8" t="n">
-        <v>1581908.450347493</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="K8" t="n">
-        <v>1605675.850157659</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="L8" t="n">
-        <v>1629442.744097701</v>
+        <v>15675990.50715409</v>
       </c>
       <c r="M8" t="n">
-        <v>1653209.996192926</v>
+        <v>15675990.50715409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.180555552293515e-305</v>
+        <v>26376492.22965971</v>
       </c>
       <c r="C9" t="n">
-        <v>1.205150459632963e-305</v>
+        <v>26908070.40215068</v>
       </c>
       <c r="D9" t="n">
-        <v>1.229745366972412e-305</v>
+        <v>27439648.57739344</v>
       </c>
       <c r="E9" t="n">
-        <v>1.25434027431186e-305</v>
+        <v>27971226.74249765</v>
       </c>
       <c r="F9" t="n">
-        <v>1.278935181651308e-305</v>
+        <v>28502804.88480826</v>
       </c>
       <c r="G9" t="n">
-        <v>1.303530088990756e-305</v>
+        <v>29034382.99219848</v>
       </c>
       <c r="H9" t="n">
-        <v>1.328124996330204e-305</v>
+        <v>29565961.05335118</v>
       </c>
       <c r="I9" t="n">
-        <v>1.352719903669653e-305</v>
+        <v>30097539.05802089</v>
       </c>
       <c r="J9" t="n">
-        <v>1.377314811009101e-305</v>
+        <v>30629116.99727108</v>
       </c>
       <c r="K9" t="n">
-        <v>1.401909718348549e-305</v>
+        <v>31160694.86368218</v>
       </c>
       <c r="L9" t="n">
-        <v>1.426504625687997e-305</v>
+        <v>31692272.6515224</v>
       </c>
       <c r="M9" t="n">
-        <v>1.451099533027445e-305</v>
+        <v>32223850.3568815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5334735.502316199</v>
+        <v>4968003.904489994</v>
       </c>
       <c r="C10" t="n">
-        <v>5445875.825281046</v>
+        <v>5071503.985833168</v>
       </c>
       <c r="D10" t="n">
-        <v>5557016.148245975</v>
+        <v>5175004.067176819</v>
       </c>
       <c r="E10" t="n">
-        <v>5668156.471210942</v>
+        <v>5278504.148520947</v>
       </c>
       <c r="F10" t="n">
-        <v>5779296.794175863</v>
+        <v>5382004.22986412</v>
       </c>
       <c r="G10" t="n">
-        <v>5890437.117140822</v>
+        <v>5485504.311207294</v>
       </c>
       <c r="H10" t="n">
-        <v>6001577.440105677</v>
+        <v>5589004.392550468</v>
       </c>
       <c r="I10" t="n">
-        <v>6112717.763070516</v>
+        <v>5692504.473894596</v>
       </c>
       <c r="J10" t="n">
-        <v>6223858.086035594</v>
+        <v>5796004.55523777</v>
       </c>
       <c r="K10" t="n">
-        <v>6334998.409000508</v>
+        <v>5899504.636581421</v>
       </c>
       <c r="L10" t="n">
-        <v>6446138.731965289</v>
+        <v>6003004.717925549</v>
       </c>
       <c r="M10" t="n">
-        <v>6557279.05493024</v>
+        <v>6106504.799268246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3888172.528122813</v>
+        <v>7535541.367554367</v>
       </c>
       <c r="C11" t="n">
-        <v>3969176.122458816</v>
+        <v>7692531.812711716</v>
       </c>
       <c r="D11" t="n">
-        <v>4050179.716794714</v>
+        <v>7849522.257869124</v>
       </c>
       <c r="E11" t="n">
-        <v>4131183.311130539</v>
+        <v>8006512.703026533</v>
       </c>
       <c r="F11" t="n">
-        <v>4212186.905466437</v>
+        <v>8163503.148183823</v>
       </c>
       <c r="G11" t="n">
-        <v>4293190.49980244</v>
+        <v>8320493.593341112</v>
       </c>
       <c r="H11" t="n">
-        <v>4374194.094138205</v>
+        <v>8477484.038498759</v>
       </c>
       <c r="I11" t="n">
-        <v>4455197.688474223</v>
+        <v>8634474.483656049</v>
       </c>
       <c r="J11" t="n">
-        <v>4536201.282810003</v>
+        <v>8791464.928813577</v>
       </c>
       <c r="K11" t="n">
-        <v>4617204.877145916</v>
+        <v>8948455.373970747</v>
       </c>
       <c r="L11" t="n">
-        <v>4698208.47148183</v>
+        <v>9105445.819128394</v>
       </c>
       <c r="M11" t="n">
-        <v>4779212.065817803</v>
+        <v>9262436.264285564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="C12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="D12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="E12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="F12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="G12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="H12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="I12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="J12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="K12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="L12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
       <c r="M12" t="n">
-        <v>1819545.855270565</v>
+        <v>30969957.08135419</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540796.8363380432</v>
+        <v>38981562.67394495</v>
       </c>
       <c r="C13" t="n">
-        <v>552063.4370956421</v>
+        <v>39174480.345667</v>
       </c>
       <c r="D13" t="n">
-        <v>563330.037853241</v>
+        <v>39367398.01738843</v>
       </c>
       <c r="E13" t="n">
-        <v>574596.6386108398</v>
+        <v>39560315.68910789</v>
       </c>
       <c r="F13" t="n">
-        <v>585863.2393684387</v>
+        <v>39753233.36082599</v>
       </c>
       <c r="G13" t="n">
-        <v>597129.8401184082</v>
+        <v>39946151.03254235</v>
       </c>
       <c r="H13" t="n">
-        <v>608396.4408798218</v>
+        <v>40139068.7042582</v>
       </c>
       <c r="I13" t="n">
-        <v>619663.0416412354</v>
+        <v>40331986.37597147</v>
       </c>
       <c r="J13" t="n">
-        <v>630929.6423950195</v>
+        <v>40524904.04768395</v>
       </c>
       <c r="K13" t="n">
-        <v>642196.2431526184</v>
+        <v>40717821.71939528</v>
       </c>
       <c r="L13" t="n">
-        <v>653462.8439064026</v>
+        <v>40910739.39110437</v>
       </c>
       <c r="M13" t="n">
-        <v>664729.4446678162</v>
+        <v>41103657.06281307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>711257.8063721061</v>
+        <v>660997.6772250831</v>
       </c>
       <c r="C14" t="n">
-        <v>960602.0270022154</v>
+        <v>668289.5187306702</v>
       </c>
       <c r="D14" t="n">
-        <v>1127224.819112718</v>
+        <v>675746.9932063818</v>
       </c>
       <c r="E14" t="n">
-        <v>1241935.507019207</v>
+        <v>683363.6137974262</v>
       </c>
       <c r="F14" t="n">
-        <v>1324068.583403155</v>
+        <v>691133.1477003694</v>
       </c>
       <c r="G14" t="n">
-        <v>1385757.472660005</v>
+        <v>699049.6062134206</v>
       </c>
       <c r="H14" t="n">
-        <v>1434616.54512693</v>
+        <v>707107.2351766527</v>
       </c>
       <c r="I14" t="n">
-        <v>1475424.223921865</v>
+        <v>715300.5057861805</v>
       </c>
       <c r="J14" t="n">
-        <v>1511179.224169552</v>
+        <v>723624.1057683229</v>
       </c>
       <c r="K14" t="n">
-        <v>1543763.399396956</v>
+        <v>732072.9308994412</v>
       </c>
       <c r="L14" t="n">
-        <v>1574357.712966889</v>
+        <v>740642.0768578649</v>
       </c>
       <c r="M14" t="n">
-        <v>1603703.282316908</v>
+        <v>749326.8313950598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>387769.2959785461</v>
+        <v>3455209.540031038</v>
       </c>
       <c r="C15" t="n">
-        <v>397733.466884613</v>
+        <v>3527193.072115004</v>
       </c>
       <c r="D15" t="n">
-        <v>407697.6377868652</v>
+        <v>3599176.604198981</v>
       </c>
       <c r="E15" t="n">
-        <v>417661.8086891174</v>
+        <v>3671160.13628298</v>
       </c>
       <c r="F15" t="n">
-        <v>427625.9795951843</v>
+        <v>3743143.668366957</v>
       </c>
       <c r="G15" t="n">
-        <v>437590.1504974365</v>
+        <v>3815127.200450938</v>
       </c>
       <c r="H15" t="n">
-        <v>447554.3214035034</v>
+        <v>3887110.732534926</v>
       </c>
       <c r="I15" t="n">
-        <v>457518.4923019409</v>
+        <v>3959094.264618888</v>
       </c>
       <c r="J15" t="n">
-        <v>467482.6632080078</v>
+        <v>4031077.796702869</v>
       </c>
       <c r="K15" t="n">
-        <v>477446.8341064453</v>
+        <v>4103061.328786869</v>
       </c>
       <c r="L15" t="n">
-        <v>487411.0050163269</v>
+        <v>4175044.860870838</v>
       </c>
       <c r="M15" t="n">
-        <v>497375.1759147644</v>
+        <v>4247028.392954815</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348495.4332636595</v>
+        <v>10842326.43732926</v>
       </c>
       <c r="C16" t="n">
-        <v>355755.7547900081</v>
+        <v>11053335.48696584</v>
       </c>
       <c r="D16" t="n">
-        <v>363016.0763163567</v>
+        <v>11264352.14027381</v>
       </c>
       <c r="E16" t="n">
-        <v>370276.3978427052</v>
+        <v>11475376.37041819</v>
       </c>
       <c r="F16" t="n">
-        <v>377536.7193689942</v>
+        <v>11686408.15065897</v>
       </c>
       <c r="G16" t="n">
-        <v>384797.0408952832</v>
+        <v>11897447.45435005</v>
       </c>
       <c r="H16" t="n">
-        <v>392057.362421751</v>
+        <v>12108494.25494021</v>
       </c>
       <c r="I16" t="n">
-        <v>399317.68394804</v>
+        <v>12319548.52597052</v>
       </c>
       <c r="J16" t="n">
-        <v>406578.005474329</v>
+        <v>12530610.24107668</v>
       </c>
       <c r="K16" t="n">
-        <v>413838.3270007372</v>
+        <v>12741679.3739869</v>
       </c>
       <c r="L16" t="n">
-        <v>421098.6485270262</v>
+        <v>12952755.89852241</v>
       </c>
       <c r="M16" t="n">
-        <v>428358.9700533152</v>
+        <v>13163839.78859589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1922979.506946325</v>
+        <v>4894418.093512446</v>
       </c>
       <c r="C17" t="n">
-        <v>1962085.653132796</v>
+        <v>4779147.108090028</v>
       </c>
       <c r="D17" t="n">
-        <v>2001299.011191845</v>
+        <v>4782490.046952806</v>
       </c>
       <c r="E17" t="n">
-        <v>2040510.937146187</v>
+        <v>5023671.015982196</v>
       </c>
       <c r="F17" t="n">
-        <v>2079676.990537643</v>
+        <v>5277402.169994667</v>
       </c>
       <c r="G17" t="n">
-        <v>2118843.298031092</v>
+        <v>5261188.97794956</v>
       </c>
       <c r="H17" t="n">
-        <v>2158009.584296823</v>
+        <v>5216926.682538465</v>
       </c>
       <c r="I17" t="n">
-        <v>2236765.233696342</v>
+        <v>5389690.404218525</v>
       </c>
       <c r="J17" t="n">
-        <v>2283611.451893568</v>
+        <v>5688514.745358959</v>
       </c>
       <c r="K17" t="n">
-        <v>2333123.562299848</v>
+        <v>5764047.588672839</v>
       </c>
       <c r="L17" t="n">
-        <v>2348200.165701866</v>
+        <v>5686888.122439004</v>
       </c>
       <c r="M17" t="n">
-        <v>2394307.35880959</v>
+        <v>5777413.363127515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.437715491375226e-304</v>
+        <v>4536495.093824573</v>
       </c>
       <c r="C18" t="n">
-        <v>6.571834564112209e-304</v>
+        <v>4631005.408279218</v>
       </c>
       <c r="D18" t="n">
-        <v>6.705953636849194e-304</v>
+        <v>4725515.722733915</v>
       </c>
       <c r="E18" t="n">
-        <v>6.840072709586177e-304</v>
+        <v>4820026.037188575</v>
       </c>
       <c r="F18" t="n">
-        <v>6.974191782323161e-304</v>
+        <v>4914536.351643249</v>
       </c>
       <c r="G18" t="n">
-        <v>7.108310855060145e-304</v>
+        <v>5009046.666097924</v>
       </c>
       <c r="H18" t="n">
-        <v>7.242429927797129e-304</v>
+        <v>5103556.980552629</v>
       </c>
       <c r="I18" t="n">
-        <v>7.376549000534114e-304</v>
+        <v>5198067.295007288</v>
       </c>
       <c r="J18" t="n">
-        <v>7.510668073271096e-304</v>
+        <v>5292577.609461993</v>
       </c>
       <c r="K18" t="n">
-        <v>7.64478714600808e-304</v>
+        <v>5387087.923916638</v>
       </c>
       <c r="L18" t="n">
-        <v>7.778906218745064e-304</v>
+        <v>5481598.238371313</v>
       </c>
       <c r="M18" t="n">
-        <v>7.913025291482048e-304</v>
+        <v>5576108.552826047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185892.8432788737</v>
+        <v>5187834.879222959</v>
       </c>
       <c r="C19" t="n">
-        <v>185892.8432788733</v>
+        <v>5202854.771137878</v>
       </c>
       <c r="D19" t="n">
-        <v>185892.843278873</v>
+        <v>5217874.663052797</v>
       </c>
       <c r="E19" t="n">
-        <v>185892.8432788727</v>
+        <v>5232894.554967731</v>
       </c>
       <c r="F19" t="n">
-        <v>185892.8432788726</v>
+        <v>5247914.446882635</v>
       </c>
       <c r="G19" t="n">
-        <v>185892.8432788724</v>
+        <v>5262934.338797584</v>
       </c>
       <c r="H19" t="n">
-        <v>185892.843278872</v>
+        <v>5277954.230712503</v>
       </c>
       <c r="I19" t="n">
-        <v>185892.8432788718</v>
+        <v>5292974.122627437</v>
       </c>
       <c r="J19" t="n">
-        <v>185892.8432788715</v>
+        <v>5307994.014542297</v>
       </c>
       <c r="K19" t="n">
-        <v>185892.8432788712</v>
+        <v>5323013.906457245</v>
       </c>
       <c r="L19" t="n">
-        <v>185892.8432788709</v>
+        <v>5338033.798372194</v>
       </c>
       <c r="M19" t="n">
-        <v>185892.8432788705</v>
+        <v>5353053.690287113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1979347.767230658</v>
+        <v>3844936.086750716</v>
       </c>
       <c r="C20" t="n">
-        <v>1968168.006303818</v>
+        <v>3887709.715464413</v>
       </c>
       <c r="D20" t="n">
-        <v>1957411.557707921</v>
+        <v>3930483.3441782</v>
       </c>
       <c r="E20" t="n">
-        <v>1947391.301581256</v>
+        <v>3973256.972891808</v>
       </c>
       <c r="F20" t="n">
-        <v>1938084.791731618</v>
+        <v>4016030.601605594</v>
       </c>
       <c r="G20" t="n">
-        <v>1929183.113211517</v>
+        <v>4058804.2303195</v>
       </c>
       <c r="H20" t="n">
-        <v>1920321.040832684</v>
+        <v>4101577.859033108</v>
       </c>
       <c r="I20" t="n">
-        <v>1911057.761396464</v>
+        <v>4144351.487746835</v>
       </c>
       <c r="J20" t="n">
-        <v>1901142.161520097</v>
+        <v>4187125.116460562</v>
       </c>
       <c r="K20" t="n">
-        <v>1890466.827212133</v>
+        <v>4229898.745174348</v>
       </c>
       <c r="L20" t="n">
-        <v>1879293.060664481</v>
+        <v>4272672.373888075</v>
       </c>
       <c r="M20" t="n">
-        <v>1868059.988991924</v>
+        <v>4315446.002601802</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1089789.530034959</v>
+        <v>3267339.317771256</v>
       </c>
       <c r="C21" t="n">
-        <v>1096905.532637611</v>
+        <v>3252793.976149142</v>
       </c>
       <c r="D21" t="n">
-        <v>1104021.535240307</v>
+        <v>3261306.789020181</v>
       </c>
       <c r="E21" t="n">
-        <v>1111137.537842974</v>
+        <v>3327364.856396586</v>
       </c>
       <c r="F21" t="n">
-        <v>1118253.540445641</v>
+        <v>3339894.394280106</v>
       </c>
       <c r="G21" t="n">
-        <v>1125369.543048322</v>
+        <v>3373918.509681016</v>
       </c>
       <c r="H21" t="n">
-        <v>1132485.545651019</v>
+        <v>3379657.840240479</v>
       </c>
       <c r="I21" t="n">
-        <v>1139601.54825367</v>
+        <v>3369741.57742703</v>
       </c>
       <c r="J21" t="n">
-        <v>1146717.550856337</v>
+        <v>3417242.36078164</v>
       </c>
       <c r="K21" t="n">
-        <v>1153833.553459018</v>
+        <v>3432594.595647395</v>
       </c>
       <c r="L21" t="n">
-        <v>1160949.5560617</v>
+        <v>3471325.859313309</v>
       </c>
       <c r="M21" t="n">
-        <v>1168065.558664382</v>
+        <v>3485993.819943845</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>905973.4755523205</v>
+        <v>11184238.0815413</v>
       </c>
       <c r="C22" t="n">
-        <v>925805.0705776215</v>
+        <v>11826733.67630386</v>
       </c>
       <c r="D22" t="n">
-        <v>945636.2076200843</v>
+        <v>11460958.5464495</v>
       </c>
       <c r="E22" t="n">
-        <v>965466.8882395625</v>
+        <v>11800788.86702058</v>
       </c>
       <c r="F22" t="n">
-        <v>985297.1139900088</v>
+        <v>12211496.98727721</v>
       </c>
       <c r="G22" t="n">
-        <v>1005126.886421055</v>
+        <v>11888468.34885985</v>
       </c>
       <c r="H22" t="n">
-        <v>1024956.207076013</v>
+        <v>12431931.29830903</v>
       </c>
       <c r="I22" t="n">
-        <v>1044785.077494174</v>
+        <v>12592965.59028469</v>
       </c>
       <c r="J22" t="n">
-        <v>1064613.499207973</v>
+        <v>12323305.9639221</v>
       </c>
       <c r="K22" t="n">
-        <v>1084441.473745883</v>
+        <v>13052545.72591029</v>
       </c>
       <c r="L22" t="n">
-        <v>1104269.002631187</v>
+        <v>12986906.18693635</v>
       </c>
       <c r="M22" t="n">
-        <v>1124096.087381005</v>
+        <v>12778193.81195092</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81220.73198009934</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="C23" t="n">
-        <v>82912.83056301624</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="D23" t="n">
-        <v>84604.92914593592</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="E23" t="n">
-        <v>86297.02772885654</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="F23" t="n">
-        <v>87989.12631177716</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="G23" t="n">
-        <v>89681.22489468753</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="H23" t="n">
-        <v>91373.32347760908</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="I23" t="n">
-        <v>93065.42206052504</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="J23" t="n">
-        <v>94757.52064344659</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="K23" t="n">
-        <v>96449.61922636628</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="L23" t="n">
-        <v>98141.71780928597</v>
+        <v>6674903.188391619</v>
       </c>
       <c r="M23" t="n">
-        <v>99833.81639220379</v>
+        <v>6674903.188391619</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8600311.924432486</v>
+        <v>10484963.4069761</v>
       </c>
       <c r="C24" t="n">
-        <v>8589018.75975325</v>
+        <v>10703400.14462151</v>
       </c>
       <c r="D24" t="n">
-        <v>8621337.183992729</v>
+        <v>10921836.88226694</v>
       </c>
       <c r="E24" t="n">
-        <v>8690512.767274249</v>
+        <v>11140273.61991224</v>
       </c>
       <c r="F24" t="n">
-        <v>8742781.85971009</v>
+        <v>11358710.35755756</v>
       </c>
       <c r="G24" t="n">
-        <v>8745845.531146973</v>
+        <v>11577147.09520295</v>
       </c>
       <c r="H24" t="n">
-        <v>8730372.513606966</v>
+        <v>11795583.83284813</v>
       </c>
       <c r="I24" t="n">
-        <v>8750647.120591702</v>
+        <v>12014020.57049355</v>
       </c>
       <c r="J24" t="n">
-        <v>8815259.700885307</v>
+        <v>12232457.30813891</v>
       </c>
       <c r="K24" t="n">
-        <v>8876291.267156314</v>
+        <v>12450894.04578409</v>
       </c>
       <c r="L24" t="n">
-        <v>8890263.628217576</v>
+        <v>12669330.78342956</v>
       </c>
       <c r="M24" t="n">
-        <v>8873879.343143381</v>
+        <v>12887767.52107492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3108642.593078196</v>
+        <v>5789546.929404944</v>
       </c>
       <c r="C25" t="n">
-        <v>3141646.09162569</v>
+        <v>5844642.016398847</v>
       </c>
       <c r="D25" t="n">
-        <v>3174671.27291061</v>
+        <v>5899737.103392214</v>
       </c>
       <c r="E25" t="n">
-        <v>3207716.867021114</v>
+        <v>5954832.190386087</v>
       </c>
       <c r="F25" t="n">
-        <v>3240782.340203539</v>
+        <v>6009927.277380347</v>
       </c>
       <c r="G25" t="n">
-        <v>3273868.201470703</v>
+        <v>6065022.364373267</v>
       </c>
       <c r="H25" t="n">
-        <v>3306975.49121055</v>
+        <v>6120117.451367199</v>
       </c>
       <c r="I25" t="n">
-        <v>3340104.853258818</v>
+        <v>6175212.538360864</v>
       </c>
       <c r="J25" t="n">
-        <v>3373255.919102833</v>
+        <v>6230307.625354171</v>
       </c>
       <c r="K25" t="n">
-        <v>3406427.487754747</v>
+        <v>6285402.712347507</v>
       </c>
       <c r="L25" t="n">
-        <v>3439618.359963611</v>
+        <v>6340497.799341142</v>
       </c>
       <c r="M25" t="n">
-        <v>3472828.171768114</v>
+        <v>6395592.886333823</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10468908.16360664</v>
+        <v>11447089.67592335</v>
       </c>
       <c r="C26" t="n">
-        <v>10689669.44454479</v>
+        <v>11604598.0703814</v>
       </c>
       <c r="D26" t="n">
-        <v>10910430.72548366</v>
+        <v>11761977.60267925</v>
       </c>
       <c r="E26" t="n">
-        <v>11131192.00642276</v>
+        <v>11919193.66426015</v>
       </c>
       <c r="F26" t="n">
-        <v>11351953.28736138</v>
+        <v>12076217.75880194</v>
       </c>
       <c r="G26" t="n">
-        <v>11572714.5683012</v>
+        <v>12233028.80202818</v>
       </c>
       <c r="H26" t="n">
-        <v>11793475.84923983</v>
+        <v>12389613.64871383</v>
       </c>
       <c r="I26" t="n">
-        <v>12014237.13017797</v>
+        <v>12545967.64330721</v>
       </c>
       <c r="J26" t="n">
-        <v>12234998.41111732</v>
+        <v>12702094.95938301</v>
       </c>
       <c r="K26" t="n">
-        <v>12455759.69205618</v>
+        <v>12858008.19904232</v>
       </c>
       <c r="L26" t="n">
-        <v>12676520.97299528</v>
+        <v>13013728.12341404</v>
       </c>
       <c r="M26" t="n">
-        <v>12897282.25393438</v>
+        <v>13169282.89272881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15028828.22151232</v>
+        <v>5399517.03154254</v>
       </c>
       <c r="C27" t="n">
-        <v>15333090.00305271</v>
+        <v>5512006.969700694</v>
       </c>
       <c r="D27" t="n">
-        <v>15637351.7845912</v>
+        <v>5624496.907856762</v>
       </c>
       <c r="E27" t="n">
-        <v>15941613.56613016</v>
+        <v>5736986.846013844</v>
       </c>
       <c r="F27" t="n">
-        <v>16245875.34766912</v>
+        <v>5849476.784170747</v>
       </c>
       <c r="G27" t="n">
-        <v>16550137.12920856</v>
+        <v>5961966.72232914</v>
       </c>
       <c r="H27" t="n">
-        <v>16854398.91074753</v>
+        <v>6074456.660485506</v>
       </c>
       <c r="I27" t="n">
-        <v>17158660.69228601</v>
+        <v>6186946.598642528</v>
       </c>
       <c r="J27" t="n">
-        <v>17462922.47382593</v>
+        <v>6299436.536799967</v>
       </c>
       <c r="K27" t="n">
-        <v>17767184.25536537</v>
+        <v>6411926.474956989</v>
       </c>
       <c r="L27" t="n">
-        <v>18071446.03690386</v>
+        <v>6524416.413114429</v>
       </c>
       <c r="M27" t="n">
-        <v>18375707.81844378</v>
+        <v>6636906.351270795</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3555965.149061918</v>
+        <v>18267518.88854504</v>
       </c>
       <c r="C28" t="n">
-        <v>3630047.756334066</v>
+        <v>16215230.13236153</v>
       </c>
       <c r="D28" t="n">
-        <v>3704130.363606453</v>
+        <v>16643995.50771618</v>
       </c>
       <c r="E28" t="n">
-        <v>3778212.970878363</v>
+        <v>14535179.54784775</v>
       </c>
       <c r="F28" t="n">
-        <v>3852295.578150272</v>
+        <v>15715071.82582688</v>
       </c>
       <c r="G28" t="n">
-        <v>3926378.185422421</v>
+        <v>15318994.30550778</v>
       </c>
       <c r="H28" t="n">
-        <v>4000460.792694569</v>
+        <v>15347169.63403666</v>
       </c>
       <c r="I28" t="n">
-        <v>4074543.399966717</v>
+        <v>18092499.42027581</v>
       </c>
       <c r="J28" t="n">
-        <v>4148626.007238865</v>
+        <v>16826008.33819211</v>
       </c>
       <c r="K28" t="n">
-        <v>4222708.614511251</v>
+        <v>15409421.27896309</v>
       </c>
       <c r="L28" t="n">
-        <v>4296791.221782923</v>
+        <v>14604892.10774231</v>
       </c>
       <c r="M28" t="n">
-        <v>4370873.829055309</v>
+        <v>13340389.05236351</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11106178.52759314</v>
+        <v>1942229.543070078</v>
       </c>
       <c r="C29" t="n">
-        <v>10964771.61446381</v>
+        <v>1990168.257231176</v>
       </c>
       <c r="D29" t="n">
-        <v>10860822.80236912</v>
+        <v>2038104.657120645</v>
       </c>
       <c r="E29" t="n">
-        <v>10789904.80466557</v>
+        <v>2086038.748985082</v>
       </c>
       <c r="F29" t="n">
-        <v>10748113.60915613</v>
+        <v>2133970.539053977</v>
       </c>
       <c r="G29" t="n">
-        <v>10732006.63069296</v>
+        <v>2181900.03354007</v>
       </c>
       <c r="H29" t="n">
-        <v>10738548.17371321</v>
+        <v>2229827.238639385</v>
       </c>
       <c r="I29" t="n">
-        <v>10765061.34072685</v>
+        <v>2277752.160531104</v>
       </c>
       <c r="J29" t="n">
-        <v>10809185.62488174</v>
+        <v>2325674.80537796</v>
       </c>
       <c r="K29" t="n">
-        <v>10868839.5147953</v>
+        <v>2373595.179325819</v>
       </c>
       <c r="L29" t="n">
-        <v>10942187.51923132</v>
+        <v>2421513.288503915</v>
       </c>
       <c r="M29" t="n">
-        <v>11027611.08923626</v>
+        <v>2469429.13902545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37520562.5454123</v>
+        <v>697049.1449206769</v>
       </c>
       <c r="C30" t="n">
-        <v>37797676.81369781</v>
+        <v>713995.0886860909</v>
       </c>
       <c r="D30" t="n">
-        <v>38074786.37656975</v>
+        <v>730941.0324515048</v>
       </c>
       <c r="E30" t="n">
-        <v>38351901.56918001</v>
+        <v>747886.9762169197</v>
       </c>
       <c r="F30" t="n">
-        <v>38629011.04555893</v>
+        <v>764832.9199823337</v>
       </c>
       <c r="G30" t="n">
-        <v>38906125.47395706</v>
+        <v>781778.8637477439</v>
       </c>
       <c r="H30" t="n">
-        <v>39183236.45152187</v>
+        <v>798724.807513155</v>
       </c>
       <c r="I30" t="n">
-        <v>39460348.86517239</v>
+        <v>815670.7512785718</v>
       </c>
       <c r="J30" t="n">
-        <v>39737462.07120514</v>
+        <v>832616.6950439792</v>
       </c>
       <c r="K30" t="n">
-        <v>40014572.37431192</v>
+        <v>849562.6388094043</v>
       </c>
       <c r="L30" t="n">
-        <v>40291687.25886869</v>
+        <v>866508.582574822</v>
       </c>
       <c r="M30" t="n">
-        <v>40568796.56527472</v>
+        <v>883454.5263402248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38867401.65447295</v>
+        <v>746075.3361254884</v>
       </c>
       <c r="C31" t="n">
-        <v>39083833.71968356</v>
+        <v>755083.7682128483</v>
       </c>
       <c r="D31" t="n">
-        <v>39277304.53484827</v>
+        <v>764092.2003002074</v>
       </c>
       <c r="E31" t="n">
-        <v>39468856.79751036</v>
+        <v>773100.6323875678</v>
       </c>
       <c r="F31" t="n">
-        <v>39678644.8121354</v>
+        <v>782109.0644749263</v>
       </c>
       <c r="G31" t="n">
-        <v>39871301.83065087</v>
+        <v>791117.4965622858</v>
       </c>
       <c r="H31" t="n">
-        <v>40070587.88094455</v>
+        <v>800125.9286496458</v>
       </c>
       <c r="I31" t="n">
-        <v>40279697.68062198</v>
+        <v>809134.3607370052</v>
       </c>
       <c r="J31" t="n">
-        <v>40462659.35413992</v>
+        <v>818142.7928243647</v>
       </c>
       <c r="K31" t="n">
-        <v>40685552.13345438</v>
+        <v>827151.2249117238</v>
       </c>
       <c r="L31" t="n">
-        <v>40867537.61491579</v>
+        <v>836159.6569990832</v>
       </c>
       <c r="M31" t="n">
-        <v>41059872.18016189</v>
+        <v>845168.0890864437</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>258417.7954949141</v>
+        <v>1887497.444202971</v>
       </c>
       <c r="C32" t="n">
-        <v>264312.9876292348</v>
+        <v>1926820.307623858</v>
       </c>
       <c r="D32" t="n">
-        <v>270206.3276154399</v>
+        <v>1966143.171044761</v>
       </c>
       <c r="E32" t="n">
-        <v>276097.8352397978</v>
+        <v>2005466.034465604</v>
       </c>
       <c r="F32" t="n">
-        <v>281987.5300771445</v>
+        <v>2044788.897886544</v>
       </c>
       <c r="G32" t="n">
-        <v>287875.4314931631</v>
+        <v>2084111.761307461</v>
       </c>
       <c r="H32" t="n">
-        <v>293761.5586467087</v>
+        <v>2123434.624728348</v>
       </c>
       <c r="I32" t="n">
-        <v>299645.9304919392</v>
+        <v>2162757.488149241</v>
       </c>
       <c r="J32" t="n">
-        <v>305528.5657805651</v>
+        <v>2202080.351570092</v>
       </c>
       <c r="K32" t="n">
-        <v>311409.4830639362</v>
+        <v>2241403.214991</v>
       </c>
       <c r="L32" t="n">
-        <v>317288.7006952018</v>
+        <v>2280726.078411881</v>
       </c>
       <c r="M32" t="n">
-        <v>323166.2368315309</v>
+        <v>2320048.941832781</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3400252.845745623</v>
+        <v>2351616.302722957</v>
       </c>
       <c r="C33" t="n">
-        <v>3471091.446698785</v>
+        <v>2395121.159889374</v>
       </c>
       <c r="D33" t="n">
-        <v>3541930.047651768</v>
+        <v>2426290.779596329</v>
       </c>
       <c r="E33" t="n">
-        <v>3612768.64860487</v>
+        <v>2455542.009506963</v>
       </c>
       <c r="F33" t="n">
-        <v>3683607.249557793</v>
+        <v>2491728.222727988</v>
       </c>
       <c r="G33" t="n">
-        <v>3754445.850510895</v>
+        <v>2558849.72207493</v>
       </c>
       <c r="H33" t="n">
-        <v>3825284.451463938</v>
+        <v>2648808.750611618</v>
       </c>
       <c r="I33" t="n">
-        <v>3896123.05241698</v>
+        <v>2724368.721514151</v>
       </c>
       <c r="J33" t="n">
-        <v>3966961.653369963</v>
+        <v>2776755.405280061</v>
       </c>
       <c r="K33" t="n">
-        <v>4037800.254323006</v>
+        <v>2811666.665325407</v>
       </c>
       <c r="L33" t="n">
-        <v>4108638.855276048</v>
+        <v>2837715.564272728</v>
       </c>
       <c r="M33" t="n">
-        <v>4179477.456229091</v>
+        <v>2863924.120080542</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9786856.041712508</v>
+        <v>2849283.548949651</v>
       </c>
       <c r="C34" t="n">
-        <v>9726283.688981012</v>
+        <v>2885634.543457031</v>
       </c>
       <c r="D34" t="n">
-        <v>9781127.461623937</v>
+        <v>2921617.971653201</v>
       </c>
       <c r="E34" t="n">
-        <v>9898718.705662251</v>
+        <v>2957673.013319612</v>
       </c>
       <c r="F34" t="n">
-        <v>10050423.42521098</v>
+        <v>2994104.744640894</v>
       </c>
       <c r="G34" t="n">
-        <v>10220674.37754893</v>
+        <v>3030513.069157004</v>
       </c>
       <c r="H34" t="n">
-        <v>10401008.22954768</v>
+        <v>3066541.677030988</v>
       </c>
       <c r="I34" t="n">
-        <v>10586823.78053772</v>
+        <v>3102545.164710052</v>
       </c>
       <c r="J34" t="n">
-        <v>10775619.52818191</v>
+        <v>3138925.126259118</v>
       </c>
       <c r="K34" t="n">
-        <v>10966035.49833566</v>
+        <v>3175378.380470671</v>
       </c>
       <c r="L34" t="n">
-        <v>11157332.32344145</v>
+        <v>3211464.508663982</v>
       </c>
       <c r="M34" t="n">
-        <v>11349108.03675014</v>
+        <v>3247430.416798025</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4221717.699463129</v>
+        <v>1922054.004731417</v>
       </c>
       <c r="C35" t="n">
-        <v>4309670.151535332</v>
+        <v>1970667.706784278</v>
       </c>
       <c r="D35" t="n">
-        <v>4397622.603607357</v>
+        <v>2019281.392571867</v>
       </c>
       <c r="E35" t="n">
-        <v>4485575.055679411</v>
+        <v>2067895.06209743</v>
       </c>
       <c r="F35" t="n">
-        <v>4573527.507751644</v>
+        <v>2116508.715364128</v>
       </c>
       <c r="G35" t="n">
-        <v>4661479.959823698</v>
+        <v>2165122.352375269</v>
       </c>
       <c r="H35" t="n">
-        <v>4749432.41189599</v>
+        <v>2213735.97313419</v>
       </c>
       <c r="I35" t="n">
-        <v>4837384.863968074</v>
+        <v>2262349.577643901</v>
       </c>
       <c r="J35" t="n">
-        <v>4925337.316040218</v>
+        <v>2310963.165907979</v>
       </c>
       <c r="K35" t="n">
-        <v>5013289.768112421</v>
+        <v>2359576.737929374</v>
       </c>
       <c r="L35" t="n">
-        <v>5101242.220184505</v>
+        <v>2408190.293711573</v>
       </c>
       <c r="M35" t="n">
-        <v>5189194.672256649</v>
+        <v>2456803.833257467</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4084393.887234949</v>
+        <v>1772159.254331093</v>
       </c>
       <c r="C36" t="n">
-        <v>4152139.320594344</v>
+        <v>1240098.517489419</v>
       </c>
       <c r="D36" t="n">
-        <v>4211685.166932188</v>
+        <v>1503699.540918736</v>
       </c>
       <c r="E36" t="n">
-        <v>4335863.440142374</v>
+        <v>1825878.009902054</v>
       </c>
       <c r="F36" t="n">
-        <v>4281621.396344423</v>
+        <v>1330602.341745785</v>
       </c>
       <c r="G36" t="n">
-        <v>4345974.083360817</v>
+        <v>1545918.866155043</v>
       </c>
       <c r="H36" t="n">
-        <v>4606522.031814653</v>
+        <v>1792469.925420134</v>
       </c>
       <c r="I36" t="n">
-        <v>4617266.692105617</v>
+        <v>1602248.08625524</v>
       </c>
       <c r="J36" t="n">
-        <v>4504995.31350676</v>
+        <v>1560521.962915786</v>
       </c>
       <c r="K36" t="n">
-        <v>4756068.840100676</v>
+        <v>1984092.231126866</v>
       </c>
       <c r="L36" t="n">
-        <v>4844384.443904288</v>
+        <v>1556211.795558543</v>
       </c>
       <c r="M36" t="n">
-        <v>4746105.590923525</v>
+        <v>1798472.191224087</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5168736.540805079</v>
+        <v>5572231.176790953</v>
       </c>
       <c r="C37" t="n">
-        <v>5179437.69663053</v>
+        <v>5688319.326307535</v>
       </c>
       <c r="D37" t="n">
-        <v>5190138.852455977</v>
+        <v>5804407.475823998</v>
       </c>
       <c r="E37" t="n">
-        <v>5200840.008281413</v>
+        <v>5920495.625340462</v>
       </c>
       <c r="F37" t="n">
-        <v>5211541.164106872</v>
+        <v>6036583.774856925</v>
       </c>
       <c r="G37" t="n">
-        <v>5222242.319932334</v>
+        <v>6152671.924373865</v>
       </c>
       <c r="H37" t="n">
-        <v>5232943.475757759</v>
+        <v>6268760.073889971</v>
       </c>
       <c r="I37" t="n">
-        <v>5243644.631583206</v>
+        <v>6384848.223406196</v>
       </c>
       <c r="J37" t="n">
-        <v>5254345.787408669</v>
+        <v>6500936.372922778</v>
       </c>
       <c r="K37" t="n">
-        <v>5265046.943234108</v>
+        <v>6617024.522439241</v>
       </c>
       <c r="L37" t="n">
-        <v>5275748.099059563</v>
+        <v>6733112.671955705</v>
       </c>
       <c r="M37" t="n">
-        <v>5286449.254885029</v>
+        <v>6849200.821472287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3751660.659254847</v>
+        <v>3914588.440140134</v>
       </c>
       <c r="C38" t="n">
-        <v>3986230.005290983</v>
+        <v>3968655.780368425</v>
       </c>
       <c r="D38" t="n">
-        <v>4094072.123156505</v>
+        <v>4022724.549843131</v>
       </c>
       <c r="E38" t="n">
-        <v>4079664.900089957</v>
+        <v>4076790.46158731</v>
       </c>
       <c r="F38" t="n">
-        <v>4178846.923947942</v>
+        <v>4130859.76338714</v>
       </c>
       <c r="G38" t="n">
-        <v>4257654.07869209</v>
+        <v>4184926.205897786</v>
       </c>
       <c r="H38" t="n">
-        <v>4236649.895192781</v>
+        <v>4238994.080283463</v>
       </c>
       <c r="I38" t="n">
-        <v>4333912.407221623</v>
+        <v>4293062.399231527</v>
       </c>
       <c r="J38" t="n">
-        <v>4412988.570407353</v>
+        <v>4347128.536590476</v>
       </c>
       <c r="K38" t="n">
-        <v>4391827.543357849</v>
+        <v>4401197.908438142</v>
       </c>
       <c r="L38" t="n">
-        <v>4488579.913488269</v>
+        <v>4455264.007204561</v>
       </c>
       <c r="M38" t="n">
-        <v>4568233.278039683</v>
+        <v>4509332.391235689</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4147249.385251244</v>
+        <v>5329252.103245646</v>
       </c>
       <c r="C39" t="n">
-        <v>4233650.41411064</v>
+        <v>5424566.167424709</v>
       </c>
       <c r="D39" t="n">
-        <v>4320051.442970045</v>
+        <v>5572287.831329226</v>
       </c>
       <c r="E39" t="n">
-        <v>4406452.471829446</v>
+        <v>5697860.470844954</v>
       </c>
       <c r="F39" t="n">
-        <v>4492853.500688846</v>
+        <v>5808937.446044713</v>
       </c>
       <c r="G39" t="n">
-        <v>4579254.529548248</v>
+        <v>5918546.865715891</v>
       </c>
       <c r="H39" t="n">
-        <v>4665655.558407649</v>
+        <v>6002695.103560537</v>
       </c>
       <c r="I39" t="n">
-        <v>4752056.587267052</v>
+        <v>6142618.579944164</v>
       </c>
       <c r="J39" t="n">
-        <v>4838457.616126446</v>
+        <v>6246549.26339063</v>
       </c>
       <c r="K39" t="n">
-        <v>4924858.644985843</v>
+        <v>6381362.851775885</v>
       </c>
       <c r="L39" t="n">
-        <v>5011259.673845256</v>
+        <v>6464679.816117883</v>
       </c>
       <c r="M39" t="n">
-        <v>5097660.702704653</v>
+        <v>6566209.088433385</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13012373.23270908</v>
+        <v>5230573.613749293</v>
       </c>
       <c r="C40" t="n">
-        <v>13283464.34172316</v>
+        <v>5298868.006056713</v>
       </c>
       <c r="D40" t="n">
-        <v>13554555.45073855</v>
+        <v>5367162.398364147</v>
       </c>
       <c r="E40" t="n">
-        <v>13825646.55975336</v>
+        <v>5435456.790671619</v>
       </c>
       <c r="F40" t="n">
-        <v>14096737.66876814</v>
+        <v>5503751.182979071</v>
       </c>
       <c r="G40" t="n">
-        <v>14367828.77778244</v>
+        <v>5572045.575286551</v>
       </c>
       <c r="H40" t="n">
-        <v>14638919.8867971</v>
+        <v>5640339.967593983</v>
       </c>
       <c r="I40" t="n">
-        <v>14910010.9958123</v>
+        <v>5708634.359901397</v>
       </c>
       <c r="J40" t="n">
-        <v>15181102.10482708</v>
+        <v>5776928.752208846</v>
       </c>
       <c r="K40" t="n">
-        <v>15452193.21384138</v>
+        <v>5845223.14451633</v>
       </c>
       <c r="L40" t="n">
-        <v>15723284.32285604</v>
+        <v>5913517.536823733</v>
       </c>
       <c r="M40" t="n">
-        <v>15994375.43187121</v>
+        <v>5981811.929131174</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10855555.30518967</v>
+        <v>3045090.759355869</v>
       </c>
       <c r="C41" t="n">
-        <v>11081712.70738137</v>
+        <v>3087196.60571078</v>
       </c>
       <c r="D41" t="n">
-        <v>11307870.10957277</v>
+        <v>3129706.711838464</v>
       </c>
       <c r="E41" t="n">
-        <v>11534027.51176417</v>
+        <v>3172624.645582474</v>
       </c>
       <c r="F41" t="n">
-        <v>11760184.91395551</v>
+        <v>3215952.331722562</v>
       </c>
       <c r="G41" t="n">
-        <v>11986342.31614685</v>
+        <v>3259690.070300469</v>
       </c>
       <c r="H41" t="n">
-        <v>12212499.71833825</v>
+        <v>3303836.558213715</v>
       </c>
       <c r="I41" t="n">
-        <v>12438657.12052965</v>
+        <v>3348388.913555032</v>
       </c>
       <c r="J41" t="n">
-        <v>12664814.52272159</v>
+        <v>3393342.702250563</v>
       </c>
       <c r="K41" t="n">
-        <v>12890971.92491257</v>
+        <v>3438691.966632158</v>
       </c>
       <c r="L41" t="n">
-        <v>13117129.32710439</v>
+        <v>3484429.255668445</v>
       </c>
       <c r="M41" t="n">
-        <v>13343286.72929561</v>
+        <v>3530545.656670289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10261487.85878859</v>
+        <v>4981988.208277762</v>
       </c>
       <c r="C42" t="n">
-        <v>10475268.85584679</v>
+        <v>5085779.629283607</v>
       </c>
       <c r="D42" t="n">
-        <v>10689049.85290456</v>
+        <v>5189571.050289273</v>
       </c>
       <c r="E42" t="n">
-        <v>10902830.84996289</v>
+        <v>5293362.471295178</v>
       </c>
       <c r="F42" t="n">
-        <v>11116611.84702069</v>
+        <v>5397153.892300725</v>
       </c>
       <c r="G42" t="n">
-        <v>11330392.84407878</v>
+        <v>5500945.313306749</v>
       </c>
       <c r="H42" t="n">
-        <v>11544173.84113693</v>
+        <v>5604736.734312534</v>
       </c>
       <c r="I42" t="n">
-        <v>11757954.83819526</v>
+        <v>5708528.15531832</v>
       </c>
       <c r="J42" t="n">
-        <v>11971735.83525327</v>
+        <v>5812319.576324224</v>
       </c>
       <c r="K42" t="n">
-        <v>12185516.83231136</v>
+        <v>5916110.997329712</v>
       </c>
       <c r="L42" t="n">
-        <v>12399297.82936949</v>
+        <v>6019902.418335915</v>
       </c>
       <c r="M42" t="n">
-        <v>12613078.82642752</v>
+        <v>6123693.839341462</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4390284.262112442</v>
+        <v>3034130.1053604</v>
       </c>
       <c r="C43" t="n">
-        <v>4390284.262112442</v>
+        <v>3053580.016382024</v>
       </c>
       <c r="D43" t="n">
-        <v>4390284.262112442</v>
+        <v>3073026.529087324</v>
       </c>
       <c r="E43" t="n">
-        <v>4390284.262112442</v>
+        <v>3092475.7176577</v>
       </c>
       <c r="F43" t="n">
-        <v>4390284.262112442</v>
+        <v>3111922.954700157</v>
       </c>
       <c r="G43" t="n">
-        <v>4390284.262112442</v>
+        <v>3131371.417558089</v>
       </c>
       <c r="H43" t="n">
-        <v>4390284.262112442</v>
+        <v>3150819.381176975</v>
       </c>
       <c r="I43" t="n">
-        <v>4390284.262112442</v>
+        <v>3170267.117106728</v>
       </c>
       <c r="J43" t="n">
-        <v>4390284.262112442</v>
+        <v>3189715.807493396</v>
       </c>
       <c r="K43" t="n">
-        <v>4390284.262112442</v>
+        <v>3209162.817328088</v>
       </c>
       <c r="L43" t="n">
-        <v>4390284.262112442</v>
+        <v>3228612.232625499</v>
       </c>
       <c r="M43" t="n">
-        <v>4390284.262112442</v>
+        <v>3248058.519244794</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11411284.23876002</v>
+        <v>5720560.485578157</v>
       </c>
       <c r="C44" t="n">
-        <v>11570503.52403066</v>
+        <v>5769067.752708841</v>
       </c>
       <c r="D44" t="n">
-        <v>11729180.4703939</v>
+        <v>5817575.019839462</v>
       </c>
       <c r="E44" t="n">
-        <v>11888510.11652425</v>
+        <v>5866082.286969889</v>
       </c>
       <c r="F44" t="n">
-        <v>12047292.89549387</v>
+        <v>5914589.554100182</v>
       </c>
       <c r="G44" t="n">
-        <v>12206335.56671262</v>
+        <v>5963096.821230359</v>
       </c>
       <c r="H44" t="n">
-        <v>12365491.40343928</v>
+        <v>6011604.088360377</v>
       </c>
       <c r="I44" t="n">
-        <v>12524198.50264466</v>
+        <v>6060111.355490237</v>
       </c>
       <c r="J44" t="n">
-        <v>12683541.2785877</v>
+        <v>6108618.622619923</v>
       </c>
       <c r="K44" t="n">
-        <v>12842271.99482322</v>
+        <v>6157125.889749486</v>
       </c>
       <c r="L44" t="n">
-        <v>13001388.41808718</v>
+        <v>6205633.156878907</v>
       </c>
       <c r="M44" t="n">
-        <v>13160473.24260259</v>
+        <v>6254140.42400822</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4490423.024753124</v>
+        <v>3142222.757154584</v>
       </c>
       <c r="C45" t="n">
-        <v>4558221.377026707</v>
+        <v>3245978.949156553</v>
       </c>
       <c r="D45" t="n">
-        <v>4673098.402572513</v>
+        <v>3246154.344984606</v>
       </c>
       <c r="E45" t="n">
-        <v>4852549.085378677</v>
+        <v>3321742.624936521</v>
       </c>
       <c r="F45" t="n">
-        <v>4916672.407995194</v>
+        <v>3330507.653611779</v>
       </c>
       <c r="G45" t="n">
-        <v>4897304.802978277</v>
+        <v>3390131.855774462</v>
       </c>
       <c r="H45" t="n">
-        <v>4991304.616448551</v>
+        <v>3409943.899142414</v>
       </c>
       <c r="I45" t="n">
-        <v>5148900.234825194</v>
+        <v>3453731.519629464</v>
       </c>
       <c r="J45" t="n">
-        <v>5186510.129585952</v>
+        <v>3484748.52379781</v>
       </c>
       <c r="K45" t="n">
-        <v>5170236.735424876</v>
+        <v>3513017.293983907</v>
       </c>
       <c r="L45" t="n">
-        <v>5276794.977111399</v>
+        <v>3555297.489390522</v>
       </c>
       <c r="M45" t="n">
-        <v>5428422.346743375</v>
+        <v>3568810.993907124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12807646.73265237</v>
+        <v>2233936.136078671</v>
       </c>
       <c r="C46" t="n">
-        <v>13018849.68305182</v>
+        <v>2241780.770353824</v>
       </c>
       <c r="D46" t="n">
-        <v>13225097.93070227</v>
+        <v>2249625.404629029</v>
       </c>
       <c r="E46" t="n">
-        <v>13433171.41721922</v>
+        <v>2257470.038904212</v>
       </c>
       <c r="F46" t="n">
-        <v>13642704.1317752</v>
+        <v>2265314.673179444</v>
       </c>
       <c r="G46" t="n">
-        <v>13847617.0075168</v>
+        <v>2273159.307454601</v>
       </c>
       <c r="H46" t="n">
-        <v>14059918.25578684</v>
+        <v>2281003.941729825</v>
       </c>
       <c r="I46" t="n">
-        <v>14262689.38420367</v>
+        <v>2288848.576004997</v>
       </c>
       <c r="J46" t="n">
-        <v>14476323.53647244</v>
+        <v>2296693.210280217</v>
       </c>
       <c r="K46" t="n">
-        <v>14678683.38148761</v>
+        <v>2304537.844555371</v>
       </c>
       <c r="L46" t="n">
-        <v>14891772.07738709</v>
+        <v>2312382.478830561</v>
       </c>
       <c r="M46" t="n">
-        <v>15095587.79201818</v>
+        <v>2320227.113105774</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1569375.808526486</v>
+        <v>1648276.567479968</v>
       </c>
       <c r="C47" t="n">
-        <v>1610023.104566738</v>
+        <v>1694162.504931331</v>
       </c>
       <c r="D47" t="n">
-        <v>1650670.400606945</v>
+        <v>1740048.442827225</v>
       </c>
       <c r="E47" t="n">
-        <v>1691317.696647227</v>
+        <v>1785934.380762458</v>
       </c>
       <c r="F47" t="n">
-        <v>1731964.992687479</v>
+        <v>1831820.318309247</v>
       </c>
       <c r="G47" t="n">
-        <v>1772612.288727716</v>
+        <v>1877706.255238533</v>
       </c>
       <c r="H47" t="n">
-        <v>1813259.584767938</v>
+        <v>1923592.191635966</v>
       </c>
       <c r="I47" t="n">
-        <v>1853906.88080816</v>
+        <v>1969478.1278584</v>
       </c>
       <c r="J47" t="n">
-        <v>1894554.176848382</v>
+        <v>2015364.064350486</v>
       </c>
       <c r="K47" t="n">
-        <v>1935201.472888678</v>
+        <v>2061250.001417279</v>
       </c>
       <c r="L47" t="n">
-        <v>1975848.768928885</v>
+        <v>2107135.939067483</v>
       </c>
       <c r="M47" t="n">
-        <v>2016496.064969152</v>
+        <v>2153021.877008677</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>563441.3974616909</v>
+        <v>5018251.679191589</v>
       </c>
       <c r="C48" t="n">
-        <v>612608.4694082784</v>
+        <v>4992677.168462634</v>
       </c>
       <c r="D48" t="n">
-        <v>606013.3162617965</v>
+        <v>5054467.395256877</v>
       </c>
       <c r="E48" t="n">
-        <v>618296.1224468651</v>
+        <v>5135740.102267742</v>
       </c>
       <c r="F48" t="n">
-        <v>632496.7860484913</v>
+        <v>5221351.963670373</v>
       </c>
       <c r="G48" t="n">
-        <v>639613.7699710412</v>
+        <v>5307924.805047989</v>
       </c>
       <c r="H48" t="n">
-        <v>659689.612486616</v>
+        <v>5394705.056049109</v>
       </c>
       <c r="I48" t="n">
-        <v>675498.9161510293</v>
+        <v>5481524.651097298</v>
       </c>
       <c r="J48" t="n">
-        <v>674398.8429711498</v>
+        <v>5568346.141314507</v>
       </c>
       <c r="K48" t="n">
-        <v>692899.9918911466</v>
+        <v>5655161.216788769</v>
       </c>
       <c r="L48" t="n">
-        <v>700843.4617318872</v>
+        <v>5741968.068624854</v>
       </c>
       <c r="M48" t="n">
-        <v>733420.2592826087</v>
+        <v>5828766.338798046</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>702234.2510812674</v>
+        <v>609764.8626847118</v>
       </c>
       <c r="C49" t="n">
-        <v>710878.402854234</v>
+        <v>622468.2973239496</v>
       </c>
       <c r="D49" t="n">
-        <v>719975.658134032</v>
+        <v>635171.7319632396</v>
       </c>
       <c r="E49" t="n">
-        <v>728628.115438005</v>
+        <v>647875.1666025147</v>
       </c>
       <c r="F49" t="n">
-        <v>737596.0160734113</v>
+        <v>660578.6012417451</v>
       </c>
       <c r="G49" t="n">
-        <v>746797.3388369195</v>
+        <v>673282.0358810276</v>
       </c>
       <c r="H49" t="n">
-        <v>756126.7203192823</v>
+        <v>685985.4705202878</v>
       </c>
       <c r="I49" t="n">
-        <v>765457.8754463922</v>
+        <v>698688.9051595554</v>
       </c>
       <c r="J49" t="n">
-        <v>774300.0938883927</v>
+        <v>711392.3397987932</v>
       </c>
       <c r="K49" t="n">
-        <v>783686.0563681498</v>
+        <v>724095.7744380832</v>
       </c>
       <c r="L49" t="n">
-        <v>793075.5882354937</v>
+        <v>736799.2090773433</v>
       </c>
       <c r="M49" t="n">
-        <v>802652.5269256365</v>
+        <v>749502.6437166333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1840024.112064719</v>
+        <v>2135472.413571507</v>
       </c>
       <c r="C50" t="n">
-        <v>1900064.849092551</v>
+        <v>2179961.422187537</v>
       </c>
       <c r="D50" t="n">
-        <v>1975456.172612518</v>
+        <v>2224450.430803657</v>
       </c>
       <c r="E50" t="n">
-        <v>2001961.933533892</v>
+        <v>2268939.439419702</v>
       </c>
       <c r="F50" t="n">
-        <v>2058916.177630268</v>
+        <v>2313428.448035777</v>
       </c>
       <c r="G50" t="n">
-        <v>2101328.374788165</v>
+        <v>2357917.456651866</v>
       </c>
       <c r="H50" t="n">
-        <v>2130466.20960813</v>
+        <v>2402406.465267941</v>
       </c>
       <c r="I50" t="n">
-        <v>2189923.317568421</v>
+        <v>2446895.473884031</v>
       </c>
       <c r="J50" t="n">
-        <v>2207212.158559896</v>
+        <v>2491384.482500076</v>
       </c>
       <c r="K50" t="n">
-        <v>2273935.14827887</v>
+        <v>2535873.491116166</v>
       </c>
       <c r="L50" t="n">
-        <v>2302439.381050102</v>
+        <v>2580362.499732211</v>
       </c>
       <c r="M50" t="n">
-        <v>2353132.878857829</v>
+        <v>2624851.508348301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2203696.08820774</v>
+        <v>2882615.217512414</v>
       </c>
       <c r="C51" t="n">
-        <v>2308218.735816922</v>
+        <v>2922829.301308438</v>
       </c>
       <c r="D51" t="n">
-        <v>2428759.505919237</v>
+        <v>2963688.792417914</v>
       </c>
       <c r="E51" t="n">
-        <v>2375484.211032771</v>
+        <v>3005163.381751537</v>
       </c>
       <c r="F51" t="n">
-        <v>2525432.987608982</v>
+        <v>3047224.183570534</v>
       </c>
       <c r="G51" t="n">
-        <v>2572915.310478516</v>
+        <v>3089843.668644577</v>
       </c>
       <c r="H51" t="n">
-        <v>2542805.589744244</v>
+        <v>3132995.600548506</v>
       </c>
       <c r="I51" t="n">
-        <v>2642446.938418858</v>
+        <v>3176654.974950507</v>
       </c>
       <c r="J51" t="n">
-        <v>2648967.362694718</v>
+        <v>3220797.961751908</v>
       </c>
       <c r="K51" t="n">
-        <v>2736881.104533777</v>
+        <v>3265401.849943548</v>
       </c>
       <c r="L51" t="n">
-        <v>2805012.762943637</v>
+        <v>3310444.995051876</v>
       </c>
       <c r="M51" t="n">
-        <v>2763905.5999423</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2897672.097159326</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2938206.336344458</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2978740.57552962</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3019274.814714789</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3059809.053900011</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3100343.293085225</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3140877.532270335</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3181411.771455564</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3221946.010640748</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3262480.249825925</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3303014.489011109</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3343548.728196338</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1638311.791448537</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1672443.287103757</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1706574.782758925</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1740706.278414078</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1774837.774069227</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1808969.269724466</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1843100.765379649</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1877232.261034809</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1911363.756689943</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1945495.252345186</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1979626.748000335</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2013758.243655507</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1484710.968277067</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1504029.229389982</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1523452.770585815</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1542987.372378954</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1562639.093007391</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1582414.233847496</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1602319.2989501</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1622360.949497894</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1642545.953880793</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1662881.134176943</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1683373.30969564</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1704029.2382363</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4396926.896642983</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4444805.376128153</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4492688.973836299</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4540569.498171816</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4588446.830501515</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4636327.683150878</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4684216.973805059</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4732101.643560823</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4779976.987493537</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4827853.468158133</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4875736.306400768</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4923614.541539652</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3893199.39192041</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3948813.29687259</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4004427.20182484</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4060041.10677696</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4115655.011729091</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4171268.916681271</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4226882.821633458</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4282496.726585574</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4338110.631537765</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4393724.536489949</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4449338.441442013</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4504952.346394256</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5234727.675768733</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5343623.023640633</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5452518.575909525</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5561414.331387997</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5670310.288896799</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5779206.447261691</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5888102.805317104</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5996999.36190325</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6105896.115867078</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6214793.06606257</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6323690.21135056</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6432587.55059737</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5169910.455005765</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5237625.27856493</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5305340.102124274</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5373054.925683618</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5440769.749242902</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5508484.572802067</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5576199.396361589</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5643914.219920516</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5711629.043479919</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5779343.867039204</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5847058.690598488</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5914773.514157653</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2929645.187792599</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2963453.377165675</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2997261.566538751</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3031069.755911916</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3064877.945285022</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3098686.134658098</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3132494.324031264</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3166302.513404354</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3200110.70277743</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3233918.892150551</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3267727.081523627</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3301535.270896703</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4018082.452977713</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4064444.653345529</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4110806.853713393</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4157169.054081269</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4203531.254449122</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4249893.454817042</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4296255.655184858</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4342617.855552763</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4388980.055920571</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4435342.256288409</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4481704.456656247</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4528066.657024153</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3022382.668077665</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3042552.402129835</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3062811.1126475</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3083009.769423489</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3103233.601687808</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3123468.613394354</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3143656.987099439</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3163924.250537569</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3184089.296283422</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3204368.996139903</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3224532.626750842</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3244802.66028423</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5580845.585218973</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5622853.097124897</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5664860.60903132</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5706868.120937079</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5748875.632843405</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5790883.144749612</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5832890.656655565</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5874898.168561608</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5916905.680467859</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5958913.192373827</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6000920.704280123</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6042928.216186181</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3040511.899702474</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3072214.578708187</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3103917.257713877</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3135619.936719611</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3167322.615725331</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3199025.294731028</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3230727.973736756</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3262430.652742468</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3294133.331748188</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3325836.010753907</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3357538.689759627</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3389241.368765332</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2250420.372110084</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2259408.60508924</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2268396.838068433</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2277385.071047593</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2286373.30402679</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2295361.537005972</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2304349.769985117</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2313338.002964322</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2322326.235943496</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2331314.468922693</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2340302.701901861</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2349290.934881035</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1759834.313465804</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1804329.072137207</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1848802.111508578</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1893301.332260191</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1937798.988539696</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1982271.423105419</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2026767.052730978</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2071267.230467379</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2115739.832672358</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2160231.574867129</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2204733.762974441</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2249207.278151333</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4662502.208240211</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4744028.735937297</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4825555.263634324</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4907081.791331232</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4988608.319028318</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5070134.846725404</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5151661.374422431</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5233187.902119517</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5314714.429816425</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5396240.957513452</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5477767.485210419</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5559294.012907624</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>588612.5686410367</v>
-      </c>
-      <c r="C67" t="n">
-        <v>600875.3304877281</v>
-      </c>
-      <c r="D67" t="n">
-        <v>613138.092334412</v>
-      </c>
-      <c r="E67" t="n">
-        <v>625400.8541810922</v>
-      </c>
-      <c r="F67" t="n">
-        <v>637663.6160277873</v>
-      </c>
-      <c r="G67" t="n">
-        <v>649926.3778744712</v>
-      </c>
-      <c r="H67" t="n">
-        <v>662189.1397211626</v>
-      </c>
-      <c r="I67" t="n">
-        <v>674451.901567854</v>
-      </c>
-      <c r="J67" t="n">
-        <v>686714.6634145342</v>
-      </c>
-      <c r="K67" t="n">
-        <v>698977.4252612256</v>
-      </c>
-      <c r="L67" t="n">
-        <v>711240.1871079132</v>
-      </c>
-      <c r="M67" t="n">
-        <v>723502.9489546083</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2029400.619896591</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2071679.799477816</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2113958.979058862</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2156238.158640027</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2198517.338221192</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2240796.517802358</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2283075.697383642</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2325354.876964808</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2367634.056545913</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2409913.236127138</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2452192.415708303</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2494471.595289409</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1915432.090101779</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1955336.925312459</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1995241.760522783</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2035146.595733285</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2075051.430943727</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2114956.266154051</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2154861.101364613</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2194765.936575055</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2234670.771785676</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2274575.606996179</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2314480.442206621</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2354385.277417004</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2385814.540272236</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2435519.009861171</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2485223.479450226</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2534927.949039221</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2584632.418628216</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2634336.888217151</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2684041.357806146</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2733745.827395141</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2783450.296984196</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2833154.766573191</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2882859.236162126</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2932563.705751181</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>17811068.04741073</v>
-      </c>
-      <c r="C71" t="n">
-        <v>18109688.05704033</v>
-      </c>
-      <c r="D71" t="n">
-        <v>18408308.06666982</v>
-      </c>
-      <c r="E71" t="n">
-        <v>18706928.07629919</v>
-      </c>
-      <c r="F71" t="n">
-        <v>19005548.0859282</v>
-      </c>
-      <c r="G71" t="n">
-        <v>19304168.09555745</v>
-      </c>
-      <c r="H71" t="n">
-        <v>19602788.10518682</v>
-      </c>
-      <c r="I71" t="n">
-        <v>19901408.11481655</v>
-      </c>
-      <c r="J71" t="n">
-        <v>20200028.12444615</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20498648.13407612</v>
-      </c>
-      <c r="L71" t="n">
-        <v>20797268.14370513</v>
-      </c>
-      <c r="M71" t="n">
-        <v>21095888.15333414</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5317404.852915159</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5401879.537446359</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5485394.91491726</v>
-      </c>
-      <c r="E72" t="n">
-        <v>5568628.606892415</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5653045.901246382</v>
-      </c>
-      <c r="G72" t="n">
-        <v>5736802.405714326</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5819901.421225507</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5904184.884723242</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5988182.624938909</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6071223.341274158</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6155312.039672941</v>
-      </c>
-      <c r="M72" t="n">
-        <v>6239523.142616739</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>4852564.84400177</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4963444.878229856</v>
-      </c>
-      <c r="D73" t="n">
-        <v>5074324.912457466</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5185204.946685314</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5296084.980912685</v>
-      </c>
-      <c r="G73" t="n">
-        <v>5406965.015140772</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5517845.049368382</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5628725.083596468</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5739605.117824078</v>
-      </c>
-      <c r="K73" t="n">
-        <v>5850485.152052164</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5961365.186279774</v>
-      </c>
-      <c r="M73" t="n">
-        <v>6072245.220507622</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17444473.92206628</v>
-      </c>
-      <c r="C74" t="n">
-        <v>17517302.07464644</v>
-      </c>
-      <c r="D74" t="n">
-        <v>17590130.22765295</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17662958.3807312</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17735786.53347011</v>
-      </c>
-      <c r="G74" t="n">
-        <v>17808614.68572577</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17881442.83773477</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17954270.98992786</v>
-      </c>
-      <c r="J74" t="n">
-        <v>18027099.1425909</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18099927.2956397</v>
-      </c>
-      <c r="L74" t="n">
-        <v>18172755.44868639</v>
-      </c>
-      <c r="M74" t="n">
-        <v>18245583.6013447</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>25897542.35896587</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26437074.49144554</v>
-      </c>
-      <c r="D75" t="n">
-        <v>26976606.62391376</v>
-      </c>
-      <c r="E75" t="n">
-        <v>27516138.75640488</v>
-      </c>
-      <c r="F75" t="n">
-        <v>28055670.88887978</v>
-      </c>
-      <c r="G75" t="n">
-        <v>28595203.02135944</v>
-      </c>
-      <c r="H75" t="n">
-        <v>29134735.15384197</v>
-      </c>
-      <c r="I75" t="n">
-        <v>29674267.28631592</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30213799.41879177</v>
-      </c>
-      <c r="K75" t="n">
-        <v>30753331.55127811</v>
-      </c>
-      <c r="L75" t="n">
-        <v>31292863.6837492</v>
-      </c>
-      <c r="M75" t="n">
-        <v>31832395.8162241</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3555965.149061918</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3630047.756334066</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3704130.363606453</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3778212.970878363</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3852295.578150272</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3926378.185422421</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4000460.792694569</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4074543.399966717</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4148626.007238865</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4222708.614511251</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4296791.221782923</v>
-      </c>
-      <c r="M76" t="n">
-        <v>4370873.829055309</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>8252527.410257578</v>
-      </c>
-      <c r="C77" t="n">
-        <v>8487096.438691139</v>
-      </c>
-      <c r="D77" t="n">
-        <v>8721665.467123091</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8956234.495553851</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9190803.523983002</v>
-      </c>
-      <c r="G77" t="n">
-        <v>9425372.552410781</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9659941.580837131</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9894510.609262109</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10129079.6376856</v>
-      </c>
-      <c r="K77" t="n">
-        <v>10363648.66610789</v>
-      </c>
-      <c r="L77" t="n">
-        <v>10598217.69452852</v>
-      </c>
-      <c r="M77" t="n">
-        <v>10832786.72294766</v>
+        <v>3355906.769053712</v>
       </c>
     </row>
   </sheetData>
